--- a/Project_C/Assets/ExcelTable/OtherTable.xlsx
+++ b/Project_C/Assets/ExcelTable/OtherTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Park\Desktop\Park\Project_C\Project_C\Assets\ExcelTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\TeamIdentity\Project_C\Assets\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AB247D-D8CB-4DAF-A58F-C923F5AFF735}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF405EA2-0149-49F1-8016-05F6F9107ED7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="3000" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ThemeTable" sheetId="2" r:id="rId1"/>
@@ -885,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142D73FF-1B8C-413B-B527-AC36CD96833A}">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1082,6 +1082,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Project_C/Assets/ExcelTable/OtherTable.xlsx
+++ b/Project_C/Assets/ExcelTable/OtherTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\TeamIdentity\Project_C\Assets\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF405EA2-0149-49F1-8016-05F6F9107ED7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A440095-199F-4407-A4BA-40B678068D8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25110" yWindow="1635" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ThemeTable" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>i_Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,6 +196,22 @@
   </si>
   <si>
     <t>길 갯수에 따른 가중치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_MaxRoomCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 방 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_RewardRoomCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상 방 개수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -883,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142D73FF-1B8C-413B-B527-AC36CD96833A}">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -894,12 +910,12 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="20.25" customWidth="1"/>
-    <col min="11" max="19" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="20.25" customWidth="1"/>
+    <col min="13" max="21" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -916,19 +932,23 @@
         <v>37</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="6" t="s">
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
@@ -936,8 +956,10 @@
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
       <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -954,28 +976,34 @@
         <v>38</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="8" t="s">
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
-      <c r="T2" s="10"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -992,61 +1020,67 @@
         <v>60</v>
       </c>
       <c r="F3" s="1">
-        <f>SUM(G3:J3)</f>
+        <v>100</v>
+      </c>
+      <c r="G3" s="1">
+        <f>SUM(I3:L3)</f>
         <v>430</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1">
         <v>20</v>
       </c>
-      <c r="H3" s="1">
+      <c r="J3" s="1">
         <v>300</v>
       </c>
-      <c r="I3" s="1">
+      <c r="K3" s="1">
         <v>100</v>
       </c>
-      <c r="J3" s="1">
+      <c r="L3" s="1">
         <v>10</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="K1:T1"/>
-    <mergeCell ref="K2:T2"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="M1:V1"/>
+    <mergeCell ref="M2:V2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I2:L2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:C2 D1:G1">
+  <conditionalFormatting sqref="A1:C2 D1:I1">
     <cfRule type="expression" dxfId="9" priority="19">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
@@ -1056,27 +1090,27 @@
       <formula>$A3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:G2">
+  <conditionalFormatting sqref="D2:I2">
     <cfRule type="expression" dxfId="7" priority="17">
       <formula>$A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:J3">
+  <conditionalFormatting sqref="D3:L3">
     <cfRule type="expression" dxfId="6" priority="16">
       <formula>$A3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1">
+  <conditionalFormatting sqref="M1">
     <cfRule type="expression" dxfId="5" priority="15">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2">
+  <conditionalFormatting sqref="M2">
     <cfRule type="expression" dxfId="4" priority="14">
       <formula>$A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:T3">
+  <conditionalFormatting sqref="M3:V3">
     <cfRule type="expression" dxfId="3" priority="13">
       <formula>$A3&lt;&gt;""</formula>
     </cfRule>

--- a/Project_C/Assets/ExcelTable/OtherTable.xlsx
+++ b/Project_C/Assets/ExcelTable/OtherTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\TeamIdentity\Project_C\Assets\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A440095-199F-4407-A4BA-40B678068D8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05737741-21FA-405C-BCB2-BF5ACBAF8E00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25110" yWindow="1635" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ThemeTable" sheetId="2" r:id="rId1"/>
@@ -902,7 +902,7 @@
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1017,10 +1017,10 @@
         <v>21</v>
       </c>
       <c r="E3" s="1">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1">
         <f>SUM(I3:L3)</f>

--- a/Project_C/Assets/ExcelTable/OtherTable.xlsx
+++ b/Project_C/Assets/ExcelTable/OtherTable.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\TeamIdentity\Project_C\Assets\ExcelTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Now2_400_197\Desktop\Park\Project_C\Project_C\Assets\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05737741-21FA-405C-BCB2-BF5ACBAF8E00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="ThemeTable" sheetId="2" r:id="rId1"/>
     <sheet name="PlayerTable" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>i_Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,10 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s_RewardRoomNames[10]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>보상 방 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,37 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WoodMapReward1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WoodMapReward2</t>
-  </si>
-  <si>
-    <t>WoodMapReward3</t>
-  </si>
-  <si>
-    <t>WoodMapReward4</t>
-  </si>
-  <si>
-    <t>WoodMapReward5</t>
-  </si>
-  <si>
-    <t>WoodMapReward6</t>
-  </si>
-  <si>
-    <t>WoodMapReward7</t>
-  </si>
-  <si>
-    <t>WoodMapReward8</t>
-  </si>
-  <si>
-    <t>WoodMapReward9</t>
-  </si>
-  <si>
-    <t>WoodMapReward10</t>
-  </si>
-  <si>
     <t>Player</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -212,13 +176,21 @@
   </si>
   <si>
     <t>보상 방 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_RewardRoomThema</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WoodMapReward</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -367,7 +339,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -386,6 +358,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -403,6 +378,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -898,11 +876,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142D73FF-1B8C-413B-B527-AC36CD96833A}">
-  <dimension ref="A1:V3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -911,11 +889,10 @@
     <col min="3" max="3" width="17.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.25" bestFit="1" customWidth="1"/>
     <col min="5" max="12" width="20.25" customWidth="1"/>
-    <col min="13" max="21" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -929,37 +906,28 @@
         <v>14</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="13" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -973,48 +941,39 @@
         <v>16</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="10"/>
+        <v>35</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="E3" s="1">
         <v>20</v>
@@ -1042,40 +1001,11 @@
         <v>10</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="M1:V1"/>
-    <mergeCell ref="M2:V2"/>
+  <mergeCells count="2">
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="I2:L2"/>
   </mergeCells>
@@ -1110,7 +1040,7 @@
       <formula>$A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:V3">
+  <conditionalFormatting sqref="M3">
     <cfRule type="expression" dxfId="3" priority="13">
       <formula>$A3&lt;&gt;""</formula>
     </cfRule>
@@ -1121,7 +1051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1633D2B4-C5B6-42D0-89C2-22362E7E48D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1155,10 +1085,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1181,10 +1111,10 @@
         <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1192,7 +1122,7 @@
         <v>1101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>

--- a/Project_C/Assets/ExcelTable/OtherTable.xlsx
+++ b/Project_C/Assets/ExcelTable/OtherTable.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Now2_400_197\Desktop\Park\Project_C\Project_C\Assets\ExcelTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\TeamIdentity\Project_C\Assets\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B264C0-995E-4324-BC3D-6F176A4AF3A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="2505" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ThemeTable" sheetId="2" r:id="rId1"/>
     <sheet name="PlayerTable" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -190,7 +191,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,11 +363,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -375,12 +382,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -876,11 +877,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -917,13 +918,13 @@
       <c r="H1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="13" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -952,12 +953,12 @@
       <c r="H2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="11"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="13"/>
       <c r="M2" s="6" t="s">
         <v>17</v>
       </c>
@@ -986,7 +987,7 @@
         <v>430</v>
       </c>
       <c r="H3" s="1">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="I3" s="1">
         <v>20</v>
@@ -1051,7 +1052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
